--- a/exec/symlex_vpn_windows/test_cases(app)/high speed server (11-02-24)/high_speed_server.xlsx
+++ b/exec/symlex_vpn_windows/test_cases(app)/high speed server (11-02-24)/high_speed_server.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\high speed server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\test_cases(app)\high speed server (11-02-24)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E7CED-CA3C-483C-AACE-658186CCA73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203399C2-2E8F-4756-BF07-25ED088F2D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -696,7 +696,8 @@
 6. try to check the dropdown after selecting star icon</t>
   </si>
   <si>
-    <t xml:space="preserve">dropdown should be remain same </t>
+    <t>dropdown should be remain same , but dropdown 
+goes out</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1890,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2304,7 +2305,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="1"/>
@@ -2823,7 +2824,9 @@
       <c r="E24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2861,7 +2864,9 @@
       <c r="E25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2899,7 +2904,9 @@
       <c r="E26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2937,7 +2944,9 @@
       <c r="E27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2975,7 +2984,9 @@
       <c r="E28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3013,7 +3024,9 @@
       <c r="E29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3051,7 +3064,9 @@
       <c r="E30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3089,7 +3104,9 @@
       <c r="E31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3127,7 +3144,9 @@
       <c r="E32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3166,7 +3185,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="1"/>
@@ -3206,7 +3225,7 @@
         <v>93</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="1"/>
@@ -3246,7 +3265,7 @@
         <v>93</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="1"/>
@@ -3286,7 +3305,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="1"/>
@@ -3326,7 +3345,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="1"/>
@@ -3366,7 +3385,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="1"/>
@@ -3406,7 +3425,7 @@
         <v>138</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="1"/>
@@ -3446,7 +3465,7 @@
         <v>138</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="1"/>
@@ -3486,7 +3505,7 @@
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="1"/>
@@ -30096,7 +30115,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F23 F25:F26 F28:F29 F31:F42" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F42" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
